--- a/biology/Zoologie/Hildebrandtia_ornata/Hildebrandtia_ornata.xlsx
+++ b/biology/Zoologie/Hildebrandtia_ornata/Hildebrandtia_ornata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hildebrandtia ornata est une espèce d'amphibiens de la famille des Ptychadenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hildebrandtia ornata est une espèce d'amphibiens de la famille des Ptychadenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique subsaharienne jusqu'à 1 200 m d'altitude (Afrique du Sud, Angola, Bénin, Botswana, Cameroun, Côte d'Ivoire, Gambie, Ghana, Kenya, Malawi, Mali, Mozambique, Namibie, Nigeria, Ouganda, République centrafricaine, République démocratique du Congo, Sénégal, Swaziland, Tanzanie, Togo, Zambie, Zimbabwe)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique subsaharienne jusqu'à 1 200 m d'altitude (Afrique du Sud, Angola, Bénin, Botswana, Cameroun, Côte d'Ivoire, Gambie, Ghana, Kenya, Malawi, Mali, Mozambique, Namibie, Nigeria, Ouganda, République centrafricaine, République démocratique du Congo, Sénégal, Swaziland, Tanzanie, Togo, Zambie, Zimbabwe),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hildebrandtia macrotympanum mesure jusqu'à 65 mm. Les mâles présentent une paire de sacs vocaux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hildebrandtia macrotympanum mesure jusqu'à 65 mm. Les mâles présentent une paire de sacs vocaux.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1878 : Über die von Hrn. J. M. Hildebrandt während seiner letzten ostafrikanischen Reise gesammelten Säugethiere und Amphibien. Monatsberichte der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1878, p. 194–209 (texte intégral).</t>
         </is>
